--- a/data/vlsp2016/eda/dev/column-2-analyze.xlsx
+++ b/data/vlsp2016/eda/dev/column-2-analyze.xlsx
@@ -20,67 +20,67 @@
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>B-AP</t>
   </si>
   <si>
-    <t>nhiều, hơn, khác, cùng, nhỏ, nhất, lớn, gần, đầy, vui</t>
-  </si>
-  <si>
     <t>A, Np</t>
   </si>
   <si>
+    <t>nhiều, hơn, khác, cùng, nhất, nhỏ, lớn, gần, đầy, vui</t>
+  </si>
+  <si>
     <t>B-NP</t>
   </si>
   <si>
-    <t>một, những, người, mình, tôi, đó, chị, khi, các, năm</t>
-  </si>
-  <si>
     <t>N, P, Nc, M, Np, L, Nu, Ny, FW, A</t>
   </si>
   <si>
+    <t>một, những, người, mình, tôi, đó, khi, chị, các, năm</t>
+  </si>
+  <si>
     <t>B-PP</t>
   </si>
   <si>
-    <t>của, trong, với, cho, ở, để, về, đến, từ, trên</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
+    <t>của, trong, với, cho, ở, để, về, từ, đến, trên</t>
+  </si>
+  <si>
     <t>B-VP</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>có, là, đi, được, ra, lại, làm, nói, phải, biết</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>I-NP</t>
   </si>
   <si>
-    <t>HCM, Văn, Thị, Nam, Trâm, Trường Sơn, Lao Bảo, VN, Bắc, "</t>
-  </si>
-  <si>
     <t>Np, N, M, Ny, CH, V, A, FW, Nc, E</t>
   </si>
   <si>
+    <t>HCM, Văn, Thị, Trâm, Nam, Trường Sơn, Lao Bảo, VN, Bắc, Đằng</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
+    <t>CH, R, C, T, X, I, Z, M</t>
+  </si>
+  <si>
     <t>,, ., ", đã, và, không, ..., cũng, được, :</t>
-  </si>
-  <si>
-    <t>CH, R, C, T, X, I, Z, M</t>
   </si>
 </sst>
 </file>
@@ -458,11 +458,11 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="n">
+        <v>2871</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2871</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -472,11 +472,11 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="n">
+        <v>17423</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17423</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -486,11 +486,11 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="n">
+        <v>2818</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2818</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -500,11 +500,11 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="n">
+        <v>8715</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8715</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -514,11 +514,11 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="n">
+        <v>827</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -528,11 +528,11 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="n">
+        <v>11052</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11052</v>
       </c>
     </row>
   </sheetData>
